--- a/codigo_final_organizado/analisis/resultados_diff_d/P4_Interaccion_Modalidad.xlsx
+++ b/codigo_final_organizado/analisis/resultados_diff_d/P4_Interaccion_Modalidad.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22207718778587.42</v>
+        <v>80448460319.36288</v>
       </c>
       <c r="C2" t="n">
-        <v>519971837944.1861</v>
+        <v>2412667512.985902</v>
       </c>
       <c r="D2" t="n">
-        <v>21687746940643.23</v>
+        <v>78035792806.37698</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7023270799717.645</v>
+        <v>26997107502.8449</v>
       </c>
       <c r="C3" t="n">
-        <v>154144656933.8414</v>
+        <v>734245007.6737363</v>
       </c>
       <c r="D3" t="n">
-        <v>6869126142783.803</v>
+        <v>26262862495.17116</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22944704405495.83</v>
+        <v>82260972169.52925</v>
       </c>
       <c r="C4" t="n">
-        <v>540434319453.2774</v>
+        <v>2476191769.954624</v>
       </c>
       <c r="D4" t="n">
-        <v>22404270086042.55</v>
+        <v>79784780399.57463</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21841970298065.64</v>
+        <v>76853197667.61612</v>
       </c>
       <c r="C5" t="n">
-        <v>530899878392.4048</v>
+        <v>2267867024.890732</v>
       </c>
       <c r="D5" t="n">
-        <v>21311070419673.23</v>
+        <v>74585330642.72539</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5941161852567.418</v>
+        <v>24167913345.41976</v>
       </c>
       <c r="C6" t="n">
-        <v>130698117925.5015</v>
+        <v>684729526.2772753</v>
       </c>
       <c r="D6" t="n">
-        <v>5810463734641.916</v>
+        <v>23483183819.14249</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>741983552217.561</v>
+        <v>3220626050.680063</v>
       </c>
       <c r="C7" t="n">
-        <v>15782979379.08669</v>
+        <v>88451370.87369135</v>
       </c>
       <c r="D7" t="n">
-        <v>726200572838.4744</v>
+        <v>3132174679.806372</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>734192879987.6017</v>
+        <v>16236655844.35864</v>
       </c>
       <c r="C8" t="n">
-        <v>15495242694.66876</v>
+        <v>448083662.4119719</v>
       </c>
       <c r="D8" t="n">
-        <v>718697637292.9329</v>
+        <v>15788572181.94667</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13672737423758.69</v>
+        <v>50817480527.65192</v>
       </c>
       <c r="C9" t="n">
-        <v>307859026686.6113</v>
+        <v>1410829212.825469</v>
       </c>
       <c r="D9" t="n">
-        <v>13364878397072.08</v>
+        <v>49406651314.82645</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2136080.825210258</v>
+        <v>594.0351617115377</v>
       </c>
       <c r="C10" t="n">
-        <v>46279.72108099703</v>
+        <v>11.26879859863915</v>
       </c>
       <c r="D10" t="n">
-        <v>2089801.104129261</v>
+        <v>582.7663631128986</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
